--- a/dataset/nmr/lib.xlsx
+++ b/dataset/nmr/lib.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\1HNMR 10-31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\LXappR 2024-11-01\dataset\nmr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300938A-5CDE-4F83-ACD9-659F57BCC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F929955-3510-4B86-943B-EEB83F623444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{353C7270-199E-4DA4-AD33-422B5A92397F}"/>
+    <workbookView xWindow="-22320" yWindow="795" windowWidth="17715" windowHeight="13335" xr2:uid="{353C7270-199E-4DA4-AD33-422B5A92397F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>meta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>meta4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>HMDB0001311</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>HMDB0001485</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>HMDB0001494</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>HMDB0002361</t>
   </si>
 </sst>
 </file>
@@ -90,10 +119,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,76 +438,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FAA8D-5C20-4470-A1A8-5DDD4753F877}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.8</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>2.2999999999999998</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6.1</v>
-      </c>
-      <c r="C4">
-        <v>6.7</v>
-      </c>
-      <c r="D4">
-        <v>7.4</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E4">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>6.8</v>
-      </c>
-      <c r="C5">
-        <v>7.3</v>
-      </c>
-      <c r="D5">
-        <v>8.1</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
